--- a/FedExApplication/src/TestFiles/FedExRateVerification_PreProd.xlsx
+++ b/FedExApplication/src/TestFiles/FedExRateVerification_PreProd.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
+    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="43">
   <si>
     <t>Service</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>$252.98</t>
+  </si>
+  <si>
+    <t>$514.79</t>
+  </si>
+  <si>
+    <t>$273.68</t>
   </si>
 </sst>
 </file>
@@ -213,39 +219,39 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="8" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="40" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="8" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="8" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -277,7 +283,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -291,10 +297,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -452,7 +458,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -461,13 +467,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -477,7 +483,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -486,7 +492,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -495,7 +501,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -505,12 +511,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -541,7 +547,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -560,7 +566,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -572,8 +578,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -1222,7 +1228,7 @@
         <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
         <v>39</v>
@@ -1243,7 +1249,7 @@
         <v>305.85000000000002</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
         <v>39</v>
@@ -1279,22 +1285,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FedExApplication/src/TestFiles/FedExRateVerification_PreProd.xlsx
+++ b/FedExApplication/src/TestFiles/FedExRateVerification_PreProd.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
+    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="40">
   <si>
     <t>Service</t>
   </si>
@@ -73,9 +73,6 @@
     <t>$317.25</t>
   </si>
   <si>
-    <t>$549.37</t>
-  </si>
-  <si>
     <t>$19.04</t>
   </si>
   <si>
@@ -130,13 +127,7 @@
     <t>$105.75</t>
   </si>
   <si>
-    <t>$473.23</t>
-  </si>
-  <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>$252.98</t>
   </si>
   <si>
     <t>$514.79</t>
@@ -152,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -168,10 +159,6 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Unicode MS"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -204,54 +191,34 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="8" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="40" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="8" xfId="0">
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="8" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -283,7 +250,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -297,10 +264,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -458,7 +425,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -467,13 +434,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -483,7 +450,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -492,7 +459,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -501,7 +468,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -511,12 +478,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -547,7 +514,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -566,7 +533,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -578,11 +545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -640,10 +607,10 @@
         <v>19.04</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -661,10 +628,10 @@
         <v>24.32</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -682,10 +649,10 @@
         <v>28.55</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -703,10 +670,10 @@
         <v>40.19</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -724,10 +691,10 @@
         <v>52.88</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -745,10 +712,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -762,14 +729,14 @@
       <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -783,14 +750,14 @@
       <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -808,10 +775,10 @@
         <v>15.86</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -829,10 +796,10 @@
         <v>20.09</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -850,10 +817,10 @@
         <v>24.32</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -871,10 +838,10 @@
         <v>37.01</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -892,10 +859,10 @@
         <v>49.7</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -913,10 +880,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -934,10 +901,10 @@
         <v>12.69</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="7"/>
     </row>
@@ -955,10 +922,10 @@
         <v>15.86</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -976,10 +943,10 @@
         <v>19.04</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -997,10 +964,10 @@
         <v>29.61</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -1018,10 +985,10 @@
         <v>40.19</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -1039,10 +1006,10 @@
         <v>48.65</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7"/>
     </row>
@@ -1060,10 +1027,10 @@
         <v>38.07</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="7"/>
     </row>
@@ -1081,10 +1048,10 @@
         <v>48.65</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -1102,10 +1069,10 @@
         <v>57.11</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -1123,10 +1090,10 @@
         <v>80.37</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -1144,10 +1111,10 @@
         <v>105.75</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="7"/>
     </row>
@@ -1165,10 +1132,10 @@
         <v>105.75</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -1182,14 +1149,14 @@
       <c r="C28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -1203,14 +1170,14 @@
       <c r="C29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -1224,14 +1191,14 @@
       <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>19</v>
+      <c r="D30" t="s">
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1245,14 +1212,14 @@
       <c r="C31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="14">
-        <v>305.85000000000002</v>
+      <c r="D31" t="s">
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G31" s="7"/>
     </row>
@@ -1285,22 +1252,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FedExApplication/src/TestFiles/FedExRateVerification_PreProd.xlsx
+++ b/FedExApplication/src/TestFiles/FedExRateVerification_PreProd.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
+    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="40">
   <si>
     <t>Service</t>
   </si>
@@ -193,32 +193,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="8" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="40" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="8" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -250,7 +250,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -264,10 +264,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -425,7 +425,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -434,13 +434,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -450,7 +450,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -459,7 +459,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -468,7 +468,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -478,12 +478,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -514,7 +514,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -533,7 +533,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -545,8 +545,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
@@ -1252,22 +1252,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>